--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail10 Features.xlsx
@@ -3321,7 +3321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3332,29 +3332,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3375,115 +3373,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3500,72 +3488,66 @@
         <v>7.159585190163151e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.891694433482521</v>
+        <v>4.53605639998126e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.466272365612635</v>
+        <v>1.119157484376012e-05</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.53605639998126e-06</v>
+        <v>0.09220901046991437</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.119157484376012e-05</v>
+        <v>0.2834100670692808</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.09220901046991437</v>
+        <v>0.08865503129723097</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2834100670692808</v>
+        <v>1.486967886339388</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08865503129723097</v>
+        <v>1.436610333520274</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.392707976350185</v>
+        <v>4.113375659503723</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.436610333520274</v>
+        <v>1.11508905622449e-13</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.113375659503723</v>
+        <v>6837590.454834557</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.11508905622449e-13</v>
+        <v>1.522446611884624e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>6837590.454834557</v>
+        <v>5.213336081316059</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.522446611884624e-05</v>
+        <v>0.0001798271606967996</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5.213336081316059</v>
+        <v>10.22206965435177</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001798271606967996</v>
+        <v>1.245239812066691</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.22206965435177</v>
+        <v>0.01879026734215066</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.245239812066691</v>
+        <v>2.76306376043642</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01879026734215066</v>
+        <v>0.9405332554412409</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.76306376043642</v>
+        <v>1.847997627321778</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9405332554412409</v>
+        <v>10</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.847997627321778</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1482381961380314</v>
       </c>
     </row>
@@ -3580,72 +3562,66 @@
         <v>5.926524036513503e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.210638830257498</v>
+        <v>3.521717982842858e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2.568848953528379</v>
+        <v>1.124808347620901e-05</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.521717982842858e-06</v>
+        <v>0.08093807966408914</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.124808347620901e-05</v>
+        <v>0.272101926639522</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.08093807966408914</v>
+        <v>0.08044917313355554</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.272101926639522</v>
+        <v>1.513054057317598</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08044917313355554</v>
+        <v>1.430405091943942</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.418426582038997</v>
+        <v>4.068235484759649</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.430405091943942</v>
+        <v>9.574876430745402e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.068235484759649</v>
+        <v>7938838.24979443</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.574876430745402e-14</v>
+        <v>1.326224232674417e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>7938838.24979443</v>
+        <v>6.034580496713742</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.326224232674417e-05</v>
+        <v>0.0001831451964174823</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6.034580496713742</v>
+        <v>9.281975516652217</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001831451964174823</v>
+        <v>1.383365118763417</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.281975516652217</v>
+        <v>0.01577888712442495</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.383365118763417</v>
+        <v>2.769944727402896</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01577888712442495</v>
+        <v>0.9429420022517974</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.769944727402896</v>
+        <v>1.844120763387379</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9429420022517974</v>
+        <v>10</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.844120763387379</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1474828064554739</v>
       </c>
     </row>
@@ -3660,72 +3636,66 @@
         <v>5.142041943264615e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.6396966193413574</v>
+        <v>2.768338283479733e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.4352443703363811</v>
+        <v>1.128899810162547e-05</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.768338283479733e-06</v>
+        <v>0.06742411968791362</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.128899810162547e-05</v>
+        <v>0.2578385100552484</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.06742411968791362</v>
+        <v>0.07092624831913215</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2578385100552484</v>
+        <v>1.556438634183178</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.07092624831913215</v>
+        <v>1.569467364933452</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.46245334446762</v>
+        <v>3.943208024442519</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.569467364933452</v>
+        <v>1.019168441122665e-13</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.943208024442519</v>
+        <v>7515195.028591139</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.019168441122665e-13</v>
+        <v>1.450295374383437e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>7515195.028591139</v>
+        <v>5.756075453185466</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.450295374383437e-05</v>
+        <v>0.0001685499232169381</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5.756075453185466</v>
+        <v>9.118760488680097</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001685499232169381</v>
+        <v>1.318818399825535</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.118760488680097</v>
+        <v>0.01401522830020363</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.318818399825535</v>
+        <v>2.809958412936088</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01401522830020363</v>
+        <v>0.9448237422192894</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.809958412936088</v>
+        <v>1.85240893790532</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9448237422192894</v>
+        <v>7</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.85240893790532</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1563865921460318</v>
       </c>
     </row>
@@ -3740,72 +3710,66 @@
         <v>4.667649380143144e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2856460586431325</v>
+        <v>2.218415030696071e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.6579887130933653</v>
+        <v>1.131863482275135e-05</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.218415030696071e-06</v>
+        <v>0.05403878973458481</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.131863482275135e-05</v>
+        <v>0.2447930684081419</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.05403878973458481</v>
+        <v>0.06277882501942454</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2447930684081419</v>
+        <v>1.608198417937063</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.06277882501942454</v>
+        <v>1.429686026250145</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.516615533864216</v>
+        <v>3.892067499818929</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.429686026250145</v>
+        <v>1.041258475056426e-13</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.892067499818929</v>
+        <v>7590127.431804176</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.041258475056426e-13</v>
+        <v>1.476543509969495e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>7590127.431804176</v>
+        <v>5.998693659959859</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.476543509969495e-05</v>
+        <v>0.0001609712202655956</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>5.998693659959859</v>
+        <v>10.08046375966362</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001609712202655956</v>
+        <v>1.165956221469605</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.08046375966362</v>
+        <v>0.01635721121290748</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.165956221469605</v>
+        <v>2.70259953383707</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01635721121290748</v>
+        <v>0.9497089079291088</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.70259953383707</v>
+        <v>1.833881499170586</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9497089079291088</v>
+        <v>6</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.833881499170586</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1669982100827122</v>
       </c>
     </row>
@@ -3820,72 +3784,66 @@
         <v>4.3933370074789e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1347915837010049</v>
+        <v>1.809423946563787e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.010872412141622</v>
+        <v>1.134034963173425e-05</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.809423946563787e-06</v>
+        <v>0.04238561638686397</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.134034963173425e-05</v>
+        <v>0.2336819940821325</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04238561638686397</v>
+        <v>0.05635925932910161</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2336819940821325</v>
+        <v>1.663999760970946</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05635925932910161</v>
+        <v>1.652169331084633</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.57453494723423</v>
+        <v>3.537425516297977</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.652169331084633</v>
+        <v>1.063287757444452e-13</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.537425516297977</v>
+        <v>7248373.514813572</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.063287757444452e-13</v>
+        <v>1.582984616769707e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>7248373.514813572</v>
+        <v>5.586398894765022</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.582984616769707e-05</v>
+        <v>0.000164357140903776</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>5.586398894765022</v>
+        <v>10.52240934745289</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000164357140903776</v>
+        <v>1.131602408609707</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.52240934745289</v>
+        <v>0.01819780318313626</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.131602408609707</v>
+        <v>2.679509150616917</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01819780318313626</v>
+        <v>0.9552848887992301</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.679509150616917</v>
+        <v>1.756682613919097</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9552848887992301</v>
+        <v>5</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.756682613919097</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1634509829232753</v>
       </c>
     </row>
@@ -3900,72 +3858,66 @@
         <v>4.247941827000215e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.1181116244072582</v>
+        <v>1.489619392930687e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.016221061880322</v>
+        <v>1.135626698279381e-05</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.489619392930687e-06</v>
+        <v>0.03150525805108095</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.135626698279381e-05</v>
+        <v>0.2205301408833572</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03150525805108095</v>
+        <v>0.04958952685200631</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2205301408833572</v>
+        <v>1.670064403298737</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04958952685200631</v>
+        <v>1.587966589900537</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.578340053698369</v>
+        <v>3.607528597140483</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.587966589900537</v>
+        <v>1.022364726029932e-13</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.607528597140483</v>
+        <v>7545513.240325405</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.022364726029932e-13</v>
+        <v>1.523336208392286e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>7545513.240325405</v>
+        <v>5.820810059389339</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.523336208392286e-05</v>
+        <v>0.0001708885112301292</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>5.820810059389339</v>
+        <v>10.30579550566967</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001708885112301292</v>
+        <v>1.207965300749627</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.30579550566967</v>
+        <v>0.01814996983410399</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.207965300749627</v>
+        <v>2.767980840475713</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01814996983410399</v>
+        <v>0.9555450987049242</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.767980840475713</v>
+        <v>1.78874174980431</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9555450987049242</v>
+        <v>5</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.78874174980431</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1620062466111449</v>
       </c>
     </row>
@@ -3980,72 +3932,66 @@
         <v>4.18540550733357e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.1605973372823704</v>
+        <v>1.489619392930687e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.9425774056019849</v>
+        <v>1.136740815987472e-05</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.489619392930687e-06</v>
+        <v>0.02187198049096752</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.136740815987472e-05</v>
+        <v>0.2075688215704223</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.02187198049096752</v>
+        <v>0.04354102877243176</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2075688215704223</v>
+        <v>1.686397182398245</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04354102877243176</v>
+        <v>1.480402945960729</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.597281329548103</v>
+        <v>3.987793796506286</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.480402945960729</v>
+        <v>8.366812469006484e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.987793796506286</v>
+        <v>9080302.627816405</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>8.366812469006484e-14</v>
+        <v>1.273972750395545e-05</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>9080302.627816405</v>
+        <v>6.898595499791688</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.273972750395545e-05</v>
+        <v>0.0001704091634686518</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>6.898595499791688</v>
+        <v>9.914080565471304</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001704091634686518</v>
+        <v>1.333041752088555</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.914080565471304</v>
+        <v>0.01674934515346532</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.333041752088555</v>
+        <v>2.887970346958012</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01674934515346532</v>
+        <v>0.9555094710393712</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.887970346958012</v>
+        <v>1.761967806329437</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9555094710393712</v>
+        <v>25</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.761967806329437</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1853005008193501</v>
       </c>
     </row>
@@ -4060,72 +4006,66 @@
         <v>4.16557516569436e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.2084430017605629</v>
+        <v>1.489619392930687e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.8974625886843262</v>
+        <v>1.137504366520542e-05</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.489619392930687e-06</v>
+        <v>0.01536765498817584</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.137504366520542e-05</v>
+        <v>0.2001733039474612</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.01536765498817584</v>
+        <v>0.04029782610136078</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2001733039474612</v>
+        <v>1.647620483119854</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04029782610136078</v>
+        <v>1.457139933385493</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.556494442991641</v>
+        <v>5.018076507647147</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.457139933385493</v>
+        <v>4.529879302410925e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.018076507647147</v>
+        <v>15992030.43708231</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.529879302410925e-14</v>
+        <v>7.053161878661282e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>15992030.43708231</v>
+        <v>11.58494152068124</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>7.053161878661282e-06</v>
+        <v>0.0001423216406836224</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>11.58494152068124</v>
+        <v>8.834823207740458</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001423216406836224</v>
+        <v>1.473837253566235</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.834823207740458</v>
+        <v>0.01110878773234938</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.473837253566235</v>
+        <v>3.176736804578824</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01110878773234938</v>
+        <v>0.9548505988137264</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.176736804578824</v>
+        <v>1.773218074635505</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9548505988137264</v>
+        <v>28</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.773218074635505</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2228017703758108</v>
       </c>
     </row>
@@ -4502,7 +4442,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.378082383573648</v>
+        <v>1.400332759185961</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.603298033159997</v>
@@ -4591,7 +4531,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.412352214168947</v>
+        <v>1.435390422393358</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.567039460818827</v>
@@ -4680,7 +4620,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.426196139327131</v>
+        <v>1.453108207420452</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.744980334556374</v>
@@ -4769,7 +4709,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.422143623551513</v>
+        <v>1.447044590417494</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.25625137090544</v>
@@ -4858,7 +4798,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.453884874874339</v>
+        <v>1.4841084705719</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.353942796498618</v>
@@ -4947,7 +4887,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.471899285529519</v>
+        <v>1.502279273419852</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.647578447693259</v>
@@ -5036,7 +4976,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.443086312073847</v>
+        <v>1.466232326926549</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.479967733548496</v>
@@ -5125,7 +5065,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.439580787781743</v>
+        <v>1.469282378935225</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.50402517835502</v>
@@ -5214,7 +5154,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.43413046518094</v>
+        <v>1.461694800653585</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.613097573953596</v>
@@ -5303,7 +5243,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.414559900394863</v>
+        <v>1.442997079695861</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.46634034522223</v>
@@ -5392,7 +5332,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.441652907158925</v>
+        <v>1.472622635127463</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.33860933964975</v>
@@ -5481,7 +5421,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.468632474243823</v>
+        <v>1.500279531972531</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.368113172302828</v>
@@ -5570,7 +5510,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.509368336172825</v>
+        <v>1.538687466906939</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.504225316208061</v>
@@ -5659,7 +5599,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.51413236892101</v>
+        <v>1.543738963364182</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.537560690012418</v>
@@ -5748,7 +5688,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.512505392024198</v>
+        <v>1.537348677982368</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.397619753618153</v>
@@ -5837,7 +5777,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.495713358788496</v>
+        <v>1.518417194727255</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.69507579778146</v>
@@ -5926,7 +5866,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.507516692461044</v>
+        <v>1.529655563276443</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.337563716424734</v>
@@ -6015,7 +5955,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.474072871935195</v>
+        <v>1.497958404843911</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.600056360675649</v>
@@ -6104,7 +6044,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.511770063639104</v>
+        <v>1.534433680647231</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.511717315189801</v>
@@ -6193,7 +6133,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.523137583470882</v>
+        <v>1.546142947948744</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.605193293982759</v>
@@ -6282,7 +6222,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.515412819352645</v>
+        <v>1.534733144559839</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.454702390266727</v>
@@ -6371,7 +6311,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.512001388758727</v>
+        <v>1.533179823858027</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.380877931060286</v>
@@ -6460,7 +6400,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.522093100095005</v>
+        <v>1.543701285040978</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.397955803039597</v>
@@ -6549,7 +6489,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.514592724645478</v>
+        <v>1.532133242979737</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.36119871267258</v>
@@ -6638,7 +6578,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.499261178734328</v>
+        <v>1.518783181787926</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.53145383705982</v>
@@ -6727,7 +6667,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.481287072037998</v>
+        <v>1.496728934299617</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.557081531353079</v>
@@ -6816,7 +6756,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.469246378789463</v>
+        <v>1.484636445526285</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.48935489818945</v>
@@ -6905,7 +6845,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.462260837478729</v>
+        <v>1.475930391381663</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.431074766805466</v>
@@ -6994,7 +6934,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.456129524037786</v>
+        <v>1.468725684933044</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.461564306953881</v>
@@ -7083,7 +7023,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.46739495914747</v>
+        <v>1.481076947822728</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.467895670999036</v>
@@ -7172,7 +7112,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.480459370563755</v>
+        <v>1.493882118759771</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.312302287750225</v>
@@ -7261,7 +7201,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.474323623962901</v>
+        <v>1.492542693873955</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.354798939300803</v>
@@ -7350,7 +7290,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.491932420119272</v>
+        <v>1.50549213925439</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.49205219854258</v>
@@ -7439,7 +7379,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.481870919432842</v>
+        <v>1.502637240426825</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.466587390099328</v>
@@ -7528,7 +7468,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.470419446958979</v>
+        <v>1.484717329974085</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.521609970604092</v>
@@ -7617,7 +7557,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.474236313530845</v>
+        <v>1.490310623092739</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.273578273805848</v>
@@ -7706,7 +7646,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.510965683090617</v>
+        <v>1.526207905607973</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.414150646158063</v>
@@ -7795,7 +7735,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.513895864952616</v>
+        <v>1.527878626994482</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.550581067446249</v>
@@ -7884,7 +7824,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.530201962572236</v>
+        <v>1.544167738706055</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.391284340504637</v>
@@ -7973,7 +7913,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.568782946089423</v>
+        <v>1.584322928106613</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.468021073215878</v>
@@ -8062,7 +8002,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.580815501003048</v>
+        <v>1.593577045487658</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.536979219307333</v>
@@ -8151,7 +8091,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.576462358788792</v>
+        <v>1.590107814622886</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.527859695330293</v>
@@ -8240,7 +8180,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.578113541624954</v>
+        <v>1.594597295012201</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.552521731512321</v>
@@ -8329,7 +8269,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.584440865071275</v>
+        <v>1.600212058230405</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.455718124837944</v>
@@ -8418,7 +8358,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.58922915330891</v>
+        <v>1.605426344146733</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.393060042713119</v>
@@ -8507,7 +8447,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.639586238802603</v>
+        <v>1.651793337225874</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.669862581233936</v>
@@ -8596,7 +8536,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.63610860324862</v>
+        <v>1.652417798975398</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.382939839721234</v>
@@ -8685,7 +8625,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.682913391094848</v>
+        <v>1.693823854112882</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.896920591502859</v>
@@ -8774,7 +8714,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.682226284921395</v>
+        <v>1.690458268921071</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.560338652004769</v>
@@ -8863,7 +8803,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.714794785373255</v>
+        <v>1.723302491777994</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.581425340638958</v>
@@ -8952,7 +8892,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.725138833944822</v>
+        <v>1.728173300126109</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.910217429293875</v>
@@ -9041,7 +8981,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.722015800102099</v>
+        <v>1.726735648309526</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.823459292156731</v>
@@ -9130,7 +9070,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.724727630173979</v>
+        <v>1.729610931172474</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.766115698790375</v>
@@ -9416,7 +9356,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.37042678578812</v>
+        <v>1.368660983287217</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.473052607732711</v>
@@ -9505,7 +9445,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.395686537239914</v>
+        <v>1.394096408191539</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.607490842637085</v>
@@ -9594,7 +9534,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.414422980202193</v>
+        <v>1.414429133262494</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.838212388398703</v>
@@ -9683,7 +9623,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.403932564740501</v>
+        <v>1.400615700589506</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.414472382973329</v>
@@ -9772,7 +9712,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.41971123591048</v>
+        <v>1.418915159120133</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.457252164873124</v>
@@ -9861,7 +9801,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.434360426468201</v>
+        <v>1.437631179408453</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.691211081175484</v>
@@ -9950,7 +9890,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.41647741836829</v>
+        <v>1.411047572968337</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.609439056058094</v>
@@ -10039,7 +9979,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.406557727153999</v>
+        <v>1.402904079886929</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.726029849001622</v>
@@ -10128,7 +10068,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.405367119594977</v>
+        <v>1.397860560189367</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.62523708521738</v>
@@ -10217,7 +10157,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.383963757624687</v>
+        <v>1.379703760153973</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.215611410544589</v>
@@ -10306,7 +10246,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.398825830817327</v>
+        <v>1.392846837813824</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.296743628476523</v>
@@ -10395,7 +10335,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.401939101545194</v>
+        <v>1.395795088095876</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.186196459395345</v>
@@ -10484,7 +10424,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.415119280402507</v>
+        <v>1.410217261062745</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.279781056199255</v>
@@ -10573,7 +10513,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.426577842111246</v>
+        <v>1.422947828904068</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.31871242635726</v>
@@ -10662,7 +10602,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.415738619275353</v>
+        <v>1.414635410846262</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.247534789838538</v>
@@ -10751,7 +10691,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.419235136976398</v>
+        <v>1.413561344373604</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.457329554537002</v>
@@ -10840,7 +10780,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.4262343742785</v>
+        <v>1.420924180581241</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.457518327635809</v>
@@ -10929,7 +10869,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.417979483718018</v>
+        <v>1.41588772510615</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.485017594271564</v>
@@ -11018,7 +10958,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.436896301427785</v>
+        <v>1.435057515644557</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.198586346710317</v>
@@ -11107,7 +11047,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.438830476354638</v>
+        <v>1.437724594105628</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.295518570791949</v>
@@ -11196,7 +11136,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.43907221717975</v>
+        <v>1.438573122184625</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.259160986679134</v>
@@ -11285,7 +11225,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.448924822378262</v>
+        <v>1.454301175131923</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.27402210304218</v>
@@ -11374,7 +11314,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.463721568743623</v>
+        <v>1.47163495507285</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.184820556414</v>
@@ -11463,7 +11403,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.482693185296073</v>
+        <v>1.484845125718856</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.200660405164874</v>
@@ -11552,7 +11492,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.47348648275122</v>
+        <v>1.481588825490077</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.619387799217708</v>
@@ -11641,7 +11581,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.469822080946334</v>
+        <v>1.479709456373123</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.66404465115012</v>
@@ -11730,7 +11670,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.485420666759821</v>
+        <v>1.49807118571166</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.761400891934683</v>
@@ -11819,7 +11759,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.492141384547149</v>
+        <v>1.500618122549192</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.773836756860913</v>
@@ -11908,7 +11848,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.493846005711911</v>
+        <v>1.50085842539752</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.682937902267672</v>
@@ -11997,7 +11937,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.514022768309195</v>
+        <v>1.517549066071793</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.664267785159018</v>
@@ -12086,7 +12026,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.518218363968124</v>
+        <v>1.520725141728964</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.608657852653271</v>
@@ -12175,7 +12115,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.51195162397431</v>
+        <v>1.517368695833806</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.506612388688878</v>
@@ -12264,7 +12204,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.519893791682042</v>
+        <v>1.520946729555749</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.510323677514213</v>
@@ -12353,7 +12293,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.513321908980834</v>
+        <v>1.515341495385678</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.701286240378687</v>
@@ -12442,7 +12382,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.50041444847209</v>
+        <v>1.499759449181345</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.691062122438421</v>
@@ -12531,7 +12471,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.504684734338764</v>
+        <v>1.502181344557448</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.724160632380474</v>
@@ -12620,7 +12560,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.517196704449479</v>
+        <v>1.514813138154879</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.737220075924081</v>
@@ -12709,7 +12649,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.507667676663669</v>
+        <v>1.504958456491245</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.711681083492489</v>
@@ -12798,7 +12738,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.51936118294113</v>
+        <v>1.517900608130834</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.671811286706725</v>
@@ -12887,7 +12827,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.551147499033024</v>
+        <v>1.55039463381415</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.65969357386503</v>
@@ -12976,7 +12916,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.560077666184596</v>
+        <v>1.557422683123709</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.823359050820898</v>
@@ -13065,7 +13005,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.560301365554378</v>
+        <v>1.558808250428261</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.906502686906726</v>
@@ -13154,7 +13094,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.558983912713029</v>
+        <v>1.561590794626606</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.983851347057179</v>
@@ -13243,7 +13183,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.563380113147807</v>
+        <v>1.56461481572144</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.923344767393028</v>
@@ -13332,7 +13272,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.567633512032224</v>
+        <v>1.571710798336255</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.565502864848432</v>
@@ -13421,7 +13361,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.593706869664981</v>
+        <v>1.599679622348835</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.65488506911035</v>
@@ -13510,7 +13450,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.58879126339942</v>
+        <v>1.596409718524527</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.71676455054808</v>
@@ -13599,7 +13539,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.613763243661296</v>
+        <v>1.616814195835893</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.647006632726332</v>
@@ -13688,7 +13628,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.610351562087933</v>
+        <v>1.616176124651332</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.766516159862679</v>
@@ -13777,7 +13717,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.630501179312363</v>
+        <v>1.640735294665834</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.575004277419349</v>
@@ -13866,7 +13806,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.629951632292862</v>
+        <v>1.638639156850409</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.780124752457924</v>
@@ -13955,7 +13895,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.634297614474057</v>
+        <v>1.642890289232945</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.753294555773876</v>
@@ -14044,7 +13984,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.648445265686768</v>
+        <v>1.662966457234079</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.693175938104936</v>
@@ -14330,7 +14270,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.775851530265213</v>
+        <v>1.776677809255981</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.625342779145116</v>
@@ -14419,7 +14359,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.789549659333931</v>
+        <v>1.78964554847107</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.88590085141148</v>
@@ -14508,7 +14448,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.791074719625815</v>
+        <v>1.789938185518975</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.840908731161268</v>
@@ -14597,7 +14537,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.788404408390474</v>
+        <v>1.788950203489946</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.361889376085349</v>
@@ -14686,7 +14626,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.794884963774271</v>
+        <v>1.792923032490178</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.425592980129671</v>
@@ -14775,7 +14715,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.797169536677355</v>
+        <v>1.79324498687979</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.979304186769494</v>
@@ -14864,7 +14804,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.794408638927249</v>
+        <v>1.790606034982166</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.404022943241067</v>
@@ -14953,7 +14893,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.780237727791448</v>
+        <v>1.772149678500595</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.962513722495584</v>
@@ -15042,7 +14982,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.77445409965621</v>
+        <v>1.7655904606329</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.775591149621282</v>
@@ -15131,7 +15071,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.761260971535334</v>
+        <v>1.755772018347509</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.821998658131449</v>
@@ -15220,7 +15160,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.773079245603842</v>
+        <v>1.768556148383468</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.434187108922906</v>
@@ -15309,7 +15249,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.775420694868417</v>
+        <v>1.770696501259917</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.727557740766111</v>
@@ -15398,7 +15338,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.788922333334415</v>
+        <v>1.785953465634451</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.974899598369423</v>
@@ -15487,7 +15427,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.785872965562357</v>
+        <v>1.77893416473461</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.977520026442202</v>
@@ -15576,7 +15516,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.773779932279584</v>
+        <v>1.767143012624007</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.085793592482562</v>
@@ -15665,7 +15605,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.77173018192837</v>
+        <v>1.763085133701802</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.095395820753604</v>
@@ -15754,7 +15694,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.780454283148608</v>
+        <v>1.768533817497436</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.818582370584765</v>
@@ -15843,7 +15783,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.772924500380898</v>
+        <v>1.761125803664807</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.748029096277878</v>
@@ -15932,7 +15872,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.781298873642828</v>
+        <v>1.767088409208214</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.518349487258523</v>
@@ -16021,7 +15961,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.79329998591869</v>
+        <v>1.775225171658247</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.363452926049272</v>
@@ -16110,7 +16050,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.793028981394826</v>
+        <v>1.775264345981111</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.501350573499994</v>
@@ -16199,7 +16139,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.791560542489955</v>
+        <v>1.770000910585688</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.835458439003722</v>
@@ -16288,7 +16228,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.809637317833733</v>
+        <v>1.785743773577774</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.800787898827209</v>
@@ -16377,7 +16317,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.81791281661159</v>
+        <v>1.792326479365473</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.395592641222889</v>
@@ -16466,7 +16406,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.811789463460287</v>
+        <v>1.784401259662343</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.302905024752091</v>
@@ -16555,7 +16495,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.801460680093792</v>
+        <v>1.767865399736118</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.375149167174301</v>
@@ -16644,7 +16584,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.797957350100632</v>
+        <v>1.761343959312094</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.587133329577866</v>
@@ -16733,7 +16673,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.785737978920196</v>
+        <v>1.746892978800761</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.968359359850294</v>
@@ -16822,7 +16762,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.779444628103183</v>
+        <v>1.743189909340063</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.75638370695799</v>
@@ -16911,7 +16851,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.78353948032197</v>
+        <v>1.744625474536322</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.840025651785727</v>
@@ -17000,7 +16940,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.795126638080788</v>
+        <v>1.755437085110534</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.936438863142172</v>
@@ -17089,7 +17029,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.795026229879674</v>
+        <v>1.762631181958554</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.492931917788591</v>
@@ -17178,7 +17118,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.796245493628119</v>
+        <v>1.761747458470059</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.89992485732885</v>
@@ -17267,7 +17207,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.777824451380627</v>
+        <v>1.747901816456192</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.564142508985122</v>
@@ -17356,7 +17296,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.779688958913852</v>
+        <v>1.746945803468396</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.399220944956525</v>
@@ -17445,7 +17385,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.784341728515142</v>
+        <v>1.750922029174059</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.411451778005592</v>
@@ -17534,7 +17474,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.792382614725904</v>
+        <v>1.75899537019415</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.788448199217167</v>
@@ -17623,7 +17563,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.786387193645711</v>
+        <v>1.754088655022101</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.184498113489429</v>
@@ -17712,7 +17652,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.787956100220273</v>
+        <v>1.753089438231999</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.424380517842186</v>
@@ -17801,7 +17741,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.790999503742752</v>
+        <v>1.754098817813879</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.166248492173556</v>
@@ -17890,7 +17830,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.799811155079728</v>
+        <v>1.764280019213084</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.152270927957691</v>
@@ -17979,7 +17919,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.793948011408503</v>
+        <v>1.764971742857501</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.126134217932342</v>
@@ -18068,7 +18008,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.793216070427103</v>
+        <v>1.760749440664364</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.180439173816996</v>
@@ -18157,7 +18097,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.803208184515006</v>
+        <v>1.777422774735344</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.916626401620816</v>
@@ -18246,7 +18186,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.809149086981772</v>
+        <v>1.786005540208117</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.969969919396929</v>
@@ -18335,7 +18275,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.81383491403746</v>
+        <v>1.783987366094245</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.325836786245565</v>
@@ -18424,7 +18364,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.81766628447167</v>
+        <v>1.784480973782579</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.395847929276738</v>
@@ -18513,7 +18453,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.832731785793393</v>
+        <v>1.796169240654572</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.677625905381145</v>
@@ -18602,7 +18542,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.841142908391701</v>
+        <v>1.798379201682046</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.528856028645893</v>
@@ -18691,7 +18631,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.841297248783599</v>
+        <v>1.798481133061125</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.296155412477339</v>
@@ -18780,7 +18720,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.837452926473414</v>
+        <v>1.79385645932658</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.054284257080216</v>
@@ -18869,7 +18809,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.838863477958231</v>
+        <v>1.796686057527408</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.025262055628455</v>
@@ -18958,7 +18898,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.838883530591906</v>
+        <v>1.80248220936717</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.332425543275182</v>
@@ -19244,7 +19184,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.804942167626065</v>
+        <v>1.775785592888143</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.279574283059529</v>
@@ -19333,7 +19273,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.806836651906718</v>
+        <v>1.779698116738814</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.562500686038032</v>
@@ -19422,7 +19362,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.798281552889233</v>
+        <v>1.772324954321277</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.769006983264761</v>
@@ -19511,7 +19451,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.790800942205365</v>
+        <v>1.775716673096494</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.207763192893902</v>
@@ -19600,7 +19540,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.796354937771202</v>
+        <v>1.786379001444862</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.844476784523045</v>
@@ -19689,7 +19629,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.792453721428399</v>
+        <v>1.78312846317714</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.594455315619654</v>
@@ -19778,7 +19718,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.788851299162673</v>
+        <v>1.774934039382192</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.379296239218453</v>
@@ -19867,7 +19807,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.786392264796625</v>
+        <v>1.755445909449511</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.779439505482555</v>
@@ -19956,7 +19896,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.776133747854434</v>
+        <v>1.743687753376506</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.183469930455137</v>
@@ -20045,7 +19985,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.77483757314462</v>
+        <v>1.749011079551683</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.954393809215742</v>
@@ -20134,7 +20074,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.774641018784286</v>
+        <v>1.748471953956838</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.623943261687537</v>
@@ -20223,7 +20163,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.767165324016823</v>
+        <v>1.738893305997112</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.996185709397005</v>
@@ -20312,7 +20252,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.767181102656372</v>
+        <v>1.739721138108814</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.01274444264752</v>
@@ -20401,7 +20341,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.762661586246215</v>
+        <v>1.730350906394929</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.481150369408361</v>
@@ -20490,7 +20430,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.758725625314509</v>
+        <v>1.727695754432274</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.655355994045904</v>
@@ -20579,7 +20519,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.751345595274339</v>
+        <v>1.715839354407308</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.405531608400495</v>
@@ -20668,7 +20608,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.751489986815658</v>
+        <v>1.715142558942893</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.404549065634328</v>
@@ -20757,7 +20697,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.749804974973012</v>
+        <v>1.715309688788142</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.465478507744113</v>
@@ -20846,7 +20786,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.737743905997787</v>
+        <v>1.702452300744715</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.692155041304318</v>
@@ -20935,7 +20875,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.720685324547768</v>
+        <v>1.684432671083501</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.62846640343453</v>
@@ -21024,7 +20964,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.715862190660027</v>
+        <v>1.67807920933654</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.160283408194568</v>
@@ -21113,7 +21053,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.691143253852545</v>
+        <v>1.661456446206078</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.119596540117999</v>
@@ -21202,7 +21142,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.691622611204233</v>
+        <v>1.674262410689519</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.070054350595416</v>
@@ -21291,7 +21231,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.697774934966326</v>
+        <v>1.679229310104803</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.029133243905761</v>
@@ -21380,7 +21320,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.693395777739389</v>
+        <v>1.670867771509972</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.908306657091017</v>
@@ -21469,7 +21409,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.698896535261361</v>
+        <v>1.672676740644627</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.972214446909137</v>
@@ -21558,7 +21498,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.702436126555812</v>
+        <v>1.677771244434928</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.718286549370892</v>
@@ -21647,7 +21587,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.698670034036518</v>
+        <v>1.671421871943394</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.073503466687406</v>
@@ -21736,7 +21676,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.699841460406359</v>
+        <v>1.675222539606054</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.971394679117787</v>
@@ -21825,7 +21765,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.700179769228387</v>
+        <v>1.677634613264864</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.080590018151327</v>
@@ -21914,7 +21854,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.70342301384853</v>
+        <v>1.682880288958723</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.026984373110435</v>
@@ -22003,7 +21943,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.69782405752347</v>
+        <v>1.676973624779282</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.947943158328159</v>
@@ -22092,7 +22032,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.705578049413273</v>
+        <v>1.683766873635929</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.691395712916093</v>
@@ -22181,7 +22121,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.705224677060273</v>
+        <v>1.685322050827708</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.985720229569994</v>
@@ -22270,7 +22210,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.707078438316879</v>
+        <v>1.680576859979246</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.100371705036313</v>
@@ -22359,7 +22299,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.716837854356376</v>
+        <v>1.686413868646584</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.501088248899738</v>
@@ -22448,7 +22388,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.726147882238267</v>
+        <v>1.690772999119807</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.865742294914729</v>
@@ -22537,7 +22477,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.717923847534092</v>
+        <v>1.683820857537139</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.916572753154993</v>
@@ -22626,7 +22566,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.715505046781235</v>
+        <v>1.680955189958607</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.363115284329697</v>
@@ -22715,7 +22655,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.711739094412411</v>
+        <v>1.67701410871086</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.765478313413241</v>
@@ -22804,7 +22744,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.702780605016149</v>
+        <v>1.672232819687395</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.884384783566313</v>
@@ -22893,7 +22833,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.702172284471353</v>
+        <v>1.669404654244158</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.564561930886435</v>
@@ -22982,7 +22922,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.703102433277793</v>
+        <v>1.666131320942578</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.558975989414116</v>
@@ -23071,7 +23011,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.708889153256788</v>
+        <v>1.673210257852361</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.945448491921711</v>
@@ -23160,7 +23100,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.699498751961229</v>
+        <v>1.661463322867754</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.913930878423788</v>
@@ -23249,7 +23189,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.69877379553995</v>
+        <v>1.66270659017304</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.791937143408388</v>
@@ -23338,7 +23278,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.70419854905414</v>
+        <v>1.672729741688519</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.599361130942678</v>
@@ -23427,7 +23367,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.707913650475913</v>
+        <v>1.672202719735661</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.042098524391415</v>
@@ -23516,7 +23456,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.724166251728073</v>
+        <v>1.685198567460194</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.071837555925074</v>
@@ -23605,7 +23545,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.729860613823365</v>
+        <v>1.698493460160633</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.880132697227338</v>
@@ -23694,7 +23634,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.724872016676069</v>
+        <v>1.694924209792648</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.704965017765196</v>
@@ -23783,7 +23723,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.732614712779049</v>
+        <v>1.702475175136797</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.099862608052871</v>
@@ -23872,7 +23812,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.73653914242033</v>
+        <v>1.704218247629684</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.354932645559556</v>
@@ -24158,7 +24098,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.60447750847334</v>
+        <v>1.577236225614659</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.879947331112699</v>
@@ -24247,7 +24187,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.616625502601721</v>
+        <v>1.584069948925922</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.618563005879576</v>
@@ -24336,7 +24276,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.634821931004562</v>
+        <v>1.604864850994528</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.103792390333953</v>
@@ -24425,7 +24365,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.623230708734639</v>
+        <v>1.592585823137817</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.373923797172631</v>
@@ -24514,7 +24454,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.628224014081447</v>
+        <v>1.601119299029565</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.971671619504408</v>
@@ -24603,7 +24543,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.634601693141844</v>
+        <v>1.609892485957997</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.521243456044133</v>
@@ -24692,7 +24632,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.632542919722405</v>
+        <v>1.609680622860146</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.386023164397438</v>
@@ -24781,7 +24721,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.605492845963276</v>
+        <v>1.581054970132043</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.906396019482963</v>
@@ -24870,7 +24810,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.595216711442673</v>
+        <v>1.567328732242649</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.730758164961923</v>
@@ -24959,7 +24899,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.571447834261929</v>
+        <v>1.550891854889324</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.01793383295417</v>
@@ -25048,7 +24988,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.569433311946167</v>
+        <v>1.554266680184193</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.948805529689558</v>
@@ -25137,7 +25077,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.557323913614302</v>
+        <v>1.542592312474954</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.874179471642853</v>
@@ -25226,7 +25166,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.545500073588974</v>
+        <v>1.529787931928593</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.804496859596231</v>
@@ -25315,7 +25255,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.54480132872048</v>
+        <v>1.533795718990059</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.947087417803104</v>
@@ -25404,7 +25344,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.544990126221917</v>
+        <v>1.53251118183138</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.79219478005746</v>
@@ -25493,7 +25433,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.550654700780759</v>
+        <v>1.533641851136164</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.74896272939988</v>
@@ -25582,7 +25522,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.552672632560733</v>
+        <v>1.540866752357916</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.985571887113175</v>
@@ -25671,7 +25611,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.549882420099848</v>
+        <v>1.539873619622312</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.756102527165484</v>
@@ -25760,7 +25700,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.550531586404274</v>
+        <v>1.54341640562857</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.804351344530417</v>
@@ -25849,7 +25789,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.548650396440513</v>
+        <v>1.54563713964327</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.923569800840023</v>
@@ -25938,7 +25878,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.548826269092273</v>
+        <v>1.550330507499718</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.803496550409303</v>
@@ -26027,7 +25967,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.548420372083493</v>
+        <v>1.545345908367082</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.752304880676602</v>
@@ -26116,7 +26056,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.576787533224945</v>
+        <v>1.574349335834027</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.51661312775634</v>
@@ -26205,7 +26145,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.591680255475384</v>
+        <v>1.579158653171426</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.522367432362011</v>
@@ -26294,7 +26234,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.605551174033246</v>
+        <v>1.590111582252892</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.892476743265438</v>
@@ -26383,7 +26323,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.614496206558577</v>
+        <v>1.594250477586411</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.948031771202534</v>
@@ -26472,7 +26412,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.641124796976277</v>
+        <v>1.617642591496658</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.317851035412038</v>
@@ -26561,7 +26501,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.652723981057434</v>
+        <v>1.628750248523638</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.225093880432826</v>
@@ -26650,7 +26590,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.652604643669277</v>
+        <v>1.623331405957539</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.022916555183407</v>
@@ -26739,7 +26679,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.65381663305402</v>
+        <v>1.624870539988016</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.452793560497813</v>
@@ -26828,7 +26768,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.659568282649993</v>
+        <v>1.628965256528179</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.07065810607904</v>
@@ -26917,7 +26857,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.659321063582721</v>
+        <v>1.629899621814212</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.403830126175019</v>
@@ -27006,7 +26946,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.666164421592616</v>
+        <v>1.634804827741166</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.724120867570687</v>
@@ -27095,7 +27035,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.669945039797684</v>
+        <v>1.628953833950325</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.535092575898582</v>
@@ -27184,7 +27124,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.655637683106292</v>
+        <v>1.609499773894125</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.144765215867662</v>
@@ -27273,7 +27213,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.642444561557962</v>
+        <v>1.600270646661589</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.325487732003093</v>
@@ -27362,7 +27302,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.636754378164734</v>
+        <v>1.600621927657006</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.048002095096462</v>
@@ -27451,7 +27391,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.627955201851735</v>
+        <v>1.59504228526387</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.98989205288853</v>
@@ -27540,7 +27480,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.61612811518606</v>
+        <v>1.595310361657807</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.885617285456317</v>
@@ -27629,7 +27569,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.604294459022881</v>
+        <v>1.586098338961762</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.769578337649696</v>
@@ -27718,7 +27658,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.606081494617162</v>
+        <v>1.590301029142336</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.755861049065434</v>
@@ -27807,7 +27747,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.601577382578024</v>
+        <v>1.586319808802464</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.957426450416954</v>
@@ -27896,7 +27836,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.596128346591102</v>
+        <v>1.579583395978744</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.907522792467961</v>
@@ -27985,7 +27925,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.601157133386212</v>
+        <v>1.584076266233947</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.834827529309693</v>
@@ -28074,7 +28014,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.610422851403433</v>
+        <v>1.594772963166804</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.951063305004683</v>
@@ -28163,7 +28103,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.606223532889912</v>
+        <v>1.588648706123334</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.788748241085989</v>
@@ -28252,7 +28192,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.592233826884963</v>
+        <v>1.574121972864944</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.978537590724558</v>
@@ -28341,7 +28281,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.600824185806608</v>
+        <v>1.581485413731677</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.963472466072333</v>
@@ -28430,7 +28370,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.59852334452322</v>
+        <v>1.583601206551874</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.969549897622263</v>
@@ -28519,7 +28459,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.604304581546511</v>
+        <v>1.593029096614876</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.017874026340245</v>
@@ -28608,7 +28548,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.602653644477719</v>
+        <v>1.589480252017705</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.705763862906866</v>
@@ -28697,7 +28637,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.618068512518311</v>
+        <v>1.59959219158339</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.875971262222255</v>
@@ -28786,7 +28726,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.621388917354114</v>
+        <v>1.601030337844496</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.0752359995027</v>
@@ -29072,7 +29012,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.378946551000254</v>
+        <v>1.402583955255528</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.522481213152279</v>
@@ -29161,7 +29101,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.417548187087682</v>
+        <v>1.443490071823344</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.390342754008904</v>
@@ -29250,7 +29190,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.433979268419823</v>
+        <v>1.464240942968246</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.637088245474035</v>
@@ -29339,7 +29279,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.434181264086132</v>
+        <v>1.461898463576503</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.24105371683128</v>
@@ -29428,7 +29368,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.469753954861604</v>
+        <v>1.501511373098286</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.46777202833605</v>
@@ -29517,7 +29457,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.48226218914223</v>
+        <v>1.51707000649263</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.484850047493488</v>
@@ -29606,7 +29546,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.453610715033457</v>
+        <v>1.481028948165539</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.388167958981718</v>
@@ -29695,7 +29635,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.454643176489409</v>
+        <v>1.482168344203284</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.432212566216669</v>
@@ -29784,7 +29724,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.447931263456089</v>
+        <v>1.473794743557329</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.452207484829453</v>
@@ -29873,7 +29813,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.431254030187502</v>
+        <v>1.454873889061295</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.328191666700478</v>
@@ -29962,7 +29902,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.467149418184611</v>
+        <v>1.489562131847753</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.360045794200494</v>
@@ -30051,7 +29991,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.476299106708516</v>
+        <v>1.498199427122722</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.200242235623917</v>
@@ -30140,7 +30080,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.5230258462586</v>
+        <v>1.539781757209806</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.503677998545388</v>
@@ -30229,7 +30169,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.517119281343528</v>
+        <v>1.532691788498513</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.534293745708784</v>
@@ -30318,7 +30258,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.511869138329803</v>
+        <v>1.523050911200732</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.33348379755649</v>
@@ -30407,7 +30347,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.500383591266101</v>
+        <v>1.504455261529069</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.581040227933485</v>
@@ -30496,7 +30436,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.500734034953043</v>
+        <v>1.502795356213385</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.257331878992497</v>
@@ -30585,7 +30525,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.460016874307877</v>
+        <v>1.465937203174391</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.41427357087471</v>
@@ -30674,7 +30614,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.49627276045388</v>
+        <v>1.500534119008618</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.371718947174186</v>
@@ -30763,7 +30703,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.494984942758172</v>
+        <v>1.499411297077944</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.39104934571122</v>
@@ -30852,7 +30792,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.487904925848593</v>
+        <v>1.484643510105076</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.262586674845456</v>
@@ -30941,7 +30881,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.481370861130034</v>
+        <v>1.484650393304752</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.313826875375072</v>
@@ -31030,7 +30970,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.485712216986593</v>
+        <v>1.49368714836152</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.39075912821822</v>
@@ -31119,7 +31059,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.468966759211051</v>
+        <v>1.47330693809178</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.433326045210713</v>
@@ -31208,7 +31148,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.440319891635935</v>
+        <v>1.449188006353454</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.410503682307443</v>
@@ -31297,7 +31237,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.420067915244756</v>
+        <v>1.427061020769014</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.462867345736498</v>
@@ -31386,7 +31326,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.410587456851633</v>
+        <v>1.415437263446893</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.453548204919186</v>
@@ -31475,7 +31415,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.404266553516532</v>
+        <v>1.410103604378613</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.473974160409164</v>
@@ -31564,7 +31504,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.401899992555839</v>
+        <v>1.407104876198104</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.495721336503645</v>
@@ -31653,7 +31593,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.415734113288867</v>
+        <v>1.42278733718982</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.499486192662696</v>
@@ -31742,7 +31682,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.423531793379647</v>
+        <v>1.431202295832522</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.337501911559905</v>
@@ -31831,7 +31771,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.418492597347838</v>
+        <v>1.431640598604611</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.319483237187125</v>
@@ -31920,7 +31860,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.437308757926859</v>
+        <v>1.447948486580039</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.411332911570821</v>
@@ -32009,7 +31949,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.416563331757365</v>
+        <v>1.432438341976245</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.532941500576433</v>
@@ -32098,7 +32038,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.398801598055042</v>
+        <v>1.408252595765744</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.585063021283316</v>
@@ -32187,7 +32127,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.401772370337984</v>
+        <v>1.413580028971531</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.306253416694857</v>
@@ -32276,7 +32216,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.426392086880511</v>
+        <v>1.439247692855605</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.538355964638415</v>
@@ -32365,7 +32305,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.424788434283362</v>
+        <v>1.437565671777023</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.611568615312609</v>
@@ -32454,7 +32394,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.445901603485744</v>
+        <v>1.456599455214263</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.318715370164478</v>
@@ -32543,7 +32483,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.485244971690387</v>
+        <v>1.498353923739682</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.482361867470024</v>
@@ -32632,7 +32572,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.504391620411569</v>
+        <v>1.517079696725355</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.498641212822137</v>
@@ -32721,7 +32661,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.49837382349557</v>
+        <v>1.513404520418568</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.454117926496195</v>
@@ -32810,7 +32750,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.504983522553115</v>
+        <v>1.518100326711697</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.523505877293366</v>
@@ -32899,7 +32839,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.508208503494942</v>
+        <v>1.521788016346387</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.471808281741085</v>
@@ -32988,7 +32928,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.510150941845214</v>
+        <v>1.523364301648384</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.337388317818287</v>
@@ -33077,7 +33017,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.555409109301737</v>
+        <v>1.567449576608762</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.441366612883231</v>
@@ -33166,7 +33106,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.553660963938764</v>
+        <v>1.565962131225693</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.373814293447862</v>
@@ -33255,7 +33195,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.614606872788557</v>
+        <v>1.620058959653994</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.472751342679275</v>
@@ -33344,7 +33284,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.636336355998554</v>
+        <v>1.638489228989604</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.317682345321451</v>
@@ -33433,7 +33373,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.705271218616085</v>
+        <v>1.704556165120428</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.455794919586801</v>
@@ -33522,7 +33462,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.705954633555908</v>
+        <v>1.70725766320576</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.769690022275273</v>
@@ -33611,7 +33551,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.720774634258275</v>
+        <v>1.721908459709655</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.867518201856734</v>
@@ -33700,7 +33640,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.727570174702506</v>
+        <v>1.726404136735792</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.660701977470728</v>
